--- a/cissp-notes26/2026-2027 Plan Cyber.xlsx
+++ b/cissp-notes26/2026-2027 Plan Cyber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcchu\Documents\zz---Goals2026-27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC57275B-0E70-45A1-838A-A7BBD91F9D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49624622-F63B-4552-8578-CA3298DB4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1290" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9596D46-8A50-4319-9482-8EEB3CA1936F}"/>
   </bookViews>
@@ -6567,7 +6567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6745,6 +6745,14 @@
       <color rgb="FF484848"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6784,7 +6792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -6952,12 +6960,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7119,6 +7182,20 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8014,8 +8091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A4BF8-DF54-4F51-9B20-D5C1ACF5066E}">
   <dimension ref="A3:AB240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8383,7 +8460,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" ht="15.75" thickBot="1">
       <c r="Q51" s="55" t="s">
         <v>535</v>
       </c>
@@ -8396,33 +8473,39 @@
       <c r="Z51" s="11"/>
     </row>
     <row r="52" spans="1:28">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="70" t="s">
         <v>581</v>
       </c>
-      <c r="Q52" s="55" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="Q52" s="72" t="s">
         <v>537</v>
       </c>
-      <c r="R52" s="55" t="s">
+      <c r="R52" s="73" t="s">
         <v>538</v>
       </c>
-      <c r="S52" s="55" t="s">
+      <c r="S52" s="74" t="s">
         <v>577</v>
       </c>
       <c r="Z52" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A53" s="71" t="s">
         <v>582</v>
       </c>
-      <c r="Q53" s="55" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="Q53" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="R53" s="55" t="s">
+      <c r="R53" s="76" t="s">
         <v>540</v>
       </c>
-      <c r="S53" s="55" t="s">
+      <c r="S53" s="77" t="s">
         <v>577</v>
       </c>
       <c r="Z53" t="s">
@@ -8483,7 +8566,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" ht="15.75" thickBot="1">
       <c r="A57" t="s">
         <v>590</v>
       </c>
@@ -8513,13 +8596,13 @@
       <c r="B58" t="s">
         <v>585</v>
       </c>
-      <c r="Q58" s="55" t="s">
+      <c r="Q58" s="72" t="s">
         <v>549</v>
       </c>
-      <c r="R58" s="55" t="s">
+      <c r="R58" s="73" t="s">
         <v>550</v>
       </c>
-      <c r="S58" s="55" t="s">
+      <c r="S58" s="74" t="s">
         <v>577</v>
       </c>
       <c r="Z58" t="s">
@@ -8539,13 +8622,13 @@
       <c r="B59" t="s">
         <v>587</v>
       </c>
-      <c r="Q59" s="55" t="s">
+      <c r="Q59" s="78" t="s">
         <v>551</v>
       </c>
-      <c r="R59" s="55" t="s">
+      <c r="R59" s="79" t="s">
         <v>552</v>
       </c>
-      <c r="S59" s="55" t="s">
+      <c r="S59" s="80" t="s">
         <v>577</v>
       </c>
       <c r="Z59" t="s">
@@ -8558,14 +8641,14 @@
         <v>577</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
-      <c r="Q60" s="55" t="s">
+    <row r="60" spans="1:28" ht="15.75" thickBot="1">
+      <c r="Q60" s="75" t="s">
         <v>553</v>
       </c>
-      <c r="R60" s="55" t="s">
+      <c r="R60" s="76" t="s">
         <v>554</v>
       </c>
-      <c r="S60" s="55" t="s">
+      <c r="S60" s="77" t="s">
         <v>577</v>
       </c>
       <c r="Z60" t="s">
@@ -8578,7 +8661,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" ht="15.75" thickBot="1">
       <c r="Q61" t="s">
         <v>555</v>
       </c>
@@ -8590,9 +8673,11 @@
       </c>
     </row>
     <row r="62" spans="1:28">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="70" t="s">
         <v>591</v>
       </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
       <c r="F62" t="s">
         <v>598</v>
       </c>
@@ -8606,10 +8691,12 @@
         <v>577</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A63" s="71" t="s">
         <v>592</v>
       </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
       <c r="Q63" s="55" t="s">
         <v>559</v>
       </c>
@@ -8620,7 +8707,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" ht="15.75" thickBot="1">
       <c r="A64" t="s">
         <v>579</v>
       </c>
@@ -8634,17 +8721,17 @@
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" ht="15.75" thickBot="1">
       <c r="A65" t="s">
         <v>593</v>
       </c>
-      <c r="Q65" s="55" t="s">
+      <c r="Q65" s="67" t="s">
         <v>563</v>
       </c>
-      <c r="R65" s="55" t="s">
+      <c r="R65" s="68" t="s">
         <v>564</v>
       </c>
-      <c r="S65" s="55" t="s">
+      <c r="S65" s="69" t="s">
         <v>577</v>
       </c>
     </row>
